--- a/tripleCRUD/uploads/excel_files/triple_sheet_-_Copy_-_Copy_-_Copy_-_Copy.xlsx
+++ b/tripleCRUD/uploads/excel_files/triple_sheet_-_Copy_-_Copy_-_Copy_-_Copy.xlsx
@@ -440,12 +440,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>peiper</t>
+          <t>peiper:Person</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">is </t>
+          <t>is_a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -457,7 +457,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>peiper</t>
+          <t>peiper:Person</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -474,12 +474,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>peiper</t>
+          <t>peiper:Person</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>is_a</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -491,7 +491,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>peiper</t>
+          <t>peiper:Person</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>peiper</t>
+          <t>peiper:Person</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>is_a</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -525,12 +525,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>peiper</t>
+          <t>peiper:Person</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>is_a</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
